--- a/magyar_atlagkereset_2010_2023.xlsx
+++ b/magyar_atlagkereset_2010_2023.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Átlagos Kereset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -396,7 +396,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>202600</v>
+        <v>202525</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>213100</v>
+        <v>213094</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>223100</v>
+        <v>223060</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>230700</v>
+        <v>230714</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>237700</v>
+        <v>237695</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>247800</v>
+        <v>247924</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>263200</v>
+        <v>263171</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>297000</v>
+        <v>297017</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>329900</v>
+        <v>329943</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>367800</v>
+        <v>367833</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -492,7 +492,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>515800</v>
+        <v>515766</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>589100</v>
+        <v>589114</v>
       </c>
     </row>
   </sheetData>
